--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Reports/LoansAndAccrualsReport_V1.3.4.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Reports/LoansAndAccrualsReport_V1.3.4.xlsx
@@ -8319,7 +8319,7 @@
         <v>13</v>
       </c>
       <c r="C136" s="24">
-        <v>44512</v>
+        <v>44515</v>
       </c>
       <c r="D136" s="23" t="s">
         <v>28</v>
